--- a/output/fit_clients/fit_round_368.xlsx
+++ b/output/fit_clients/fit_round_368.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2258668041.883712</v>
+        <v>2269237224.255747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07334869461013654</v>
+        <v>0.07048665052736444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03246337859181786</v>
+        <v>0.03560169222380374</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1129334051.378081</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2317953394.647722</v>
+        <v>2614991721.083237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1557728490486684</v>
+        <v>0.1621782255338046</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03955021295541564</v>
+        <v>0.04104532796197293</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1158976786.63149</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3251400829.341893</v>
+        <v>4319488596.626667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1208130607830753</v>
+        <v>0.1148537891080433</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02375214516100867</v>
+        <v>0.0368466697927126</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>133</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1625700375.823133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3866347437.444446</v>
+        <v>4133248188.601779</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09833071652732497</v>
+        <v>0.09759755098056405</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0353680685435936</v>
+        <v>0.04559052233243967</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1933173731.242302</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2247107016.016308</v>
+        <v>2679574992.527867</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1145406929199057</v>
+        <v>0.1484422879724916</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0486544654723754</v>
+        <v>0.0451535407319435</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1123553510.869711</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2156716522.853747</v>
+        <v>2498720606.453982</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06450559918027564</v>
+        <v>0.07507598689072731</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03962894934200459</v>
+        <v>0.0380261990296522</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1078358307.560797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3796149976.372147</v>
+        <v>2560526036.451652</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2001409753988474</v>
+        <v>0.1704646394656867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03232568400314442</v>
+        <v>0.02029662723992793</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>117</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1898075127.103214</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1732572109.976617</v>
+        <v>2072750952.028264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1221242316554436</v>
+        <v>0.1979715949555634</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03522075406039503</v>
+        <v>0.03322052688342165</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>866286118.7103697</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4495155047.883454</v>
+        <v>5109246847.222838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1883906645253845</v>
+        <v>0.1621624775544698</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04947912443076787</v>
+        <v>0.04119467319114488</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>155</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2247577584.153845</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4229934214.174255</v>
+        <v>3147195453.546801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1424616659923119</v>
+        <v>0.1351191502106049</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03958935220290367</v>
+        <v>0.04000726552236415</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>152</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2114967135.810753</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2394412101.091578</v>
+        <v>3259807076.953043</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1844096404938121</v>
+        <v>0.1333204428152072</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03487626129863128</v>
+        <v>0.04743384628316903</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>126</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1197206013.113792</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4156067042.91313</v>
+        <v>4598761305.053689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09822692475012525</v>
+        <v>0.06451919220912881</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02218886486540079</v>
+        <v>0.02022032426561613</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>123</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2078033568.467043</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3474467032.874626</v>
+        <v>2918680901.33005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1248387969495283</v>
+        <v>0.1193874635752684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04268751731814979</v>
+        <v>0.03915340323838212</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1737233516.529947</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1251625323.171681</v>
+        <v>1541724958.345466</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1071916485364249</v>
+        <v>0.1008639528404646</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03773873517222137</v>
+        <v>0.03780265206995918</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>625812690.785169</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2800790521.61624</v>
+        <v>1947638422.745426</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07289329404997402</v>
+        <v>0.07347117371791348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0491169227472587</v>
+        <v>0.04386905214609971</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1400395264.758889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5330059297.678193</v>
+        <v>5181451398.668014</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1517755281673605</v>
+        <v>0.1707575256905189</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03710106083839314</v>
+        <v>0.04538735273553821</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>107</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2665029617.714794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2984129518.338859</v>
+        <v>3162409056.781055</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1761023477952583</v>
+        <v>0.1746231807695995</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02518324775940184</v>
+        <v>0.02637643079714737</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>121</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1492064790.643636</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1340116671.334733</v>
+        <v>1139222112.162019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1570323143777805</v>
+        <v>0.1678261931691735</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02537333027742723</v>
+        <v>0.02097953413537004</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>670058447.6904824</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2709994454.506577</v>
+        <v>2101939091.921532</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09925593169467156</v>
+        <v>0.1463018252585572</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02723948417133485</v>
+        <v>0.02215549286075846</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>47</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1354997177.967916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1697903909.14097</v>
+        <v>2170305821.570487</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06654945301573538</v>
+        <v>0.0956979540504927</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03468083558296423</v>
+        <v>0.04083057954442495</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>848952019.4030623</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2558490952.577032</v>
+        <v>2689374253.85627</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09051163527932311</v>
+        <v>0.1366722671908594</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04766394654268346</v>
+        <v>0.04743844361327428</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1279245564.268234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1136363627.300625</v>
+        <v>1410810183.168324</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1741264741416025</v>
+        <v>0.1626094611967134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05385357564673635</v>
+        <v>0.0528636753947332</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>568181860.8700451</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2568256721.225488</v>
+        <v>3618059259.299067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.125703848489236</v>
+        <v>0.1076628309214638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0358533228991786</v>
+        <v>0.0246499087966176</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>108</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1284128424.893943</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1020143052.625829</v>
+        <v>1127637283.476046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1112261836776512</v>
+        <v>0.09267350793295294</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0301699320994776</v>
+        <v>0.0253513434278585</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>510071585.6635188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1346090368.019756</v>
+        <v>1322017447.212841</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08286502349954618</v>
+        <v>0.09040810574301067</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02874429622879542</v>
+        <v>0.03266470625864022</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>673045240.7938026</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4060333054.515491</v>
+        <v>3819249216.587441</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09490879570561862</v>
+        <v>0.1165397302420891</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02323705654492746</v>
+        <v>0.02591942766071294</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2030166534.449438</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3076837958.693051</v>
+        <v>3585449565.29511</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1003986665493203</v>
+        <v>0.09437145310605444</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04253165793686012</v>
+        <v>0.0303424808607526</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1538418997.235931</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5568992269.256568</v>
+        <v>4472082014.493484</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1003824113890708</v>
+        <v>0.09654908869709443</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03677985332232449</v>
+        <v>0.04369628126006806</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>162</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2784496042.756843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2114005101.845661</v>
+        <v>1640897302.971132</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1387684177217725</v>
+        <v>0.1189197228685935</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03198392120381013</v>
+        <v>0.03648424885961837</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1057002601.361836</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1237119044.679868</v>
+        <v>1080980810.318259</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08639664039261172</v>
+        <v>0.08076677189319917</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03754994352412939</v>
+        <v>0.04073260946344009</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>618559465.0811357</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1776271992.212087</v>
+        <v>1157673449.298879</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1111281608488016</v>
+        <v>0.08717992021512562</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03427993667620188</v>
+        <v>0.0363527418199041</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>888136121.6937628</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2717097656.846879</v>
+        <v>2246990915.530003</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1682331152764075</v>
+        <v>0.2065135766065745</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05614884887356266</v>
+        <v>0.04937352803555628</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>111</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1358548848.156029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1013016349.945578</v>
+        <v>1143695102.580657</v>
       </c>
       <c r="F34" t="n">
-        <v>0.116915951829832</v>
+        <v>0.09864111992396188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02548372214476431</v>
+        <v>0.01784340570787028</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>506508210.668659</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1346191123.024645</v>
+        <v>1281053024.804642</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09779520778704372</v>
+        <v>0.1013400998269855</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03674113045197463</v>
+        <v>0.03624297731414357</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>673095504.1948121</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2035376021.426559</v>
+        <v>2566434951.624233</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1125638394786225</v>
+        <v>0.1337880138154962</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01947210170251978</v>
+        <v>0.02139761574601782</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1017688069.909257</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2431310415.479752</v>
+        <v>2488291749.800964</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07659943941532467</v>
+        <v>0.09607948797360398</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03758214385874798</v>
+        <v>0.03769261778015749</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1215655294.368209</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1382720787.09688</v>
+        <v>1542164924.157251</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09142696903888177</v>
+        <v>0.1048941086594282</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0251076864859851</v>
+        <v>0.03487656241757067</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>691360459.3883023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2054341539.460235</v>
+        <v>2051256683.669631</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1632610602207535</v>
+        <v>0.1760733295490682</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03315875839538088</v>
+        <v>0.03190452270600957</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1027170756.022334</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1171742253.301804</v>
+        <v>1268937081.376679</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1043938757903926</v>
+        <v>0.1240702130367963</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05972361173562998</v>
+        <v>0.04936615343242645</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>585871175.0342488</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2265101867.350618</v>
+        <v>2233268741.647367</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1525235214992564</v>
+        <v>0.1553544956174106</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04405841399656421</v>
+        <v>0.04046369753329777</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>94</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1132550981.924194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4260738766.214244</v>
+        <v>2988141397.11523</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07775794248088352</v>
+        <v>0.1080410922574959</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0281203848709764</v>
+        <v>0.04380751708773129</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>125</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2130369430.36177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1969630772.121431</v>
+        <v>3053944712.613527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1524377483970334</v>
+        <v>0.1827647572414818</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02064809268745288</v>
+        <v>0.02015201494485282</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>984815488.0764714</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2093496005.471652</v>
+        <v>1755713951.755784</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07643199110781276</v>
+        <v>0.1002683829816875</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0310742415614619</v>
+        <v>0.0291964493430656</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1046748127.728717</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1534571130.183388</v>
+        <v>1686579074.568749</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1563522239610451</v>
+        <v>0.1562133889676749</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04552537787140499</v>
+        <v>0.03864740466882222</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>767285509.0449818</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4140799707.664944</v>
+        <v>3922958353.47798</v>
       </c>
       <c r="F46" t="n">
-        <v>0.169366213108</v>
+        <v>0.1248035194326224</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05868181061788586</v>
+        <v>0.0446474656254386</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2070399831.434042</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3218234917.772294</v>
+        <v>3419418925.973552</v>
       </c>
       <c r="F47" t="n">
-        <v>0.17255705670797</v>
+        <v>0.1468262023267017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05406851530675602</v>
+        <v>0.05648264587500119</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>99</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1609117413.776113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3584976296.073244</v>
+        <v>3281244773.995824</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1072323987866509</v>
+        <v>0.1083764916240065</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03655351679780585</v>
+        <v>0.0380865818123512</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1792488206.525966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1454244790.016235</v>
+        <v>1800562199.401513</v>
       </c>
       <c r="F49" t="n">
-        <v>0.143070548134663</v>
+        <v>0.1288653596733768</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03320102048077765</v>
+        <v>0.04033065831599828</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>727122434.1665465</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2559804657.2892</v>
+        <v>3753458411.109663</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190448440071647</v>
+        <v>0.1591979017285058</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03967063709435019</v>
+        <v>0.04305489118594861</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>125</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1279902419.803934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1452811677.4076</v>
+        <v>967509871.3008213</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1185345468256877</v>
+        <v>0.1341084965175009</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04241995427528204</v>
+        <v>0.03862549879352362</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>726405849.2994992</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4648742565.726782</v>
+        <v>3488651233.923724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1109528549180229</v>
+        <v>0.1021426172483754</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05598248216834285</v>
+        <v>0.04881283276496038</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>152</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2324371301.172016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2523063671.774861</v>
+        <v>3541528971.579617</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1587199383971933</v>
+        <v>0.192309604463288</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03069145237033986</v>
+        <v>0.0315176308196105</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>105</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1261531901.294437</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3313380712.059478</v>
+        <v>4481338667.080004</v>
       </c>
       <c r="F54" t="n">
-        <v>0.14756148853005</v>
+        <v>0.1196944396010139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04324854096414033</v>
+        <v>0.03394936190152138</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1656690366.172732</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3639241602.053332</v>
+        <v>3205299586.662666</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2083521041805241</v>
+        <v>0.1965860668907106</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02166396098127379</v>
+        <v>0.02052426805046129</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>102</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1819620760.025608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1866385524.135635</v>
+        <v>1516223123.227741</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1287135152448136</v>
+        <v>0.1633232496070525</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05662410668925046</v>
+        <v>0.05802417276704996</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>933192750.0208176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4341986761.56544</v>
+        <v>3817642701.440827</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1607068414980402</v>
+        <v>0.1662001354208841</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0231798359492025</v>
+        <v>0.0232534884928751</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>117</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2170993497.876477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1614497506.48965</v>
+        <v>1558359183.559096</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1335957310094812</v>
+        <v>0.2012368261697064</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02644937689764844</v>
+        <v>0.0298018546535415</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>807248773.9535679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4138699507.030478</v>
+        <v>3686495764.98383</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1233612828687654</v>
+        <v>0.08591939998105935</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04318299397717493</v>
+        <v>0.04582742606463392</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2069349722.768233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2884449464.44227</v>
+        <v>3638509150.959546</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2005652016915589</v>
+        <v>0.1818759240914397</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02349174052592766</v>
+        <v>0.02221768353538443</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>115</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1442224790.464942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2541970246.478759</v>
+        <v>2802172198.945909</v>
       </c>
       <c r="F61" t="n">
-        <v>0.172879217002549</v>
+        <v>0.1516405307472498</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02964557254390129</v>
+        <v>0.02804389187357901</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>127</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1270985146.907183</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1423407330.396075</v>
+        <v>1696859794.575837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1924074942297904</v>
+        <v>0.1220942780174068</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04092702719911084</v>
+        <v>0.03304018290894312</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>711703636.7465103</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4421391058.196704</v>
+        <v>4726346515.064179</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09227294213044158</v>
+        <v>0.083898054310575</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03237029052225728</v>
+        <v>0.03358551069847941</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>106</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2210695572.670889</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3386323420.361905</v>
+        <v>5385571402.529012</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1300004738411675</v>
+        <v>0.1255643991095329</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02155373366387817</v>
+        <v>0.03280747134335765</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>114</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1693161702.878776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5301564001.808323</v>
+        <v>5838228754.440277</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1714084570283733</v>
+        <v>0.140532723549169</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0223623251160062</v>
+        <v>0.02414977152276939</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>132</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2650781941.837017</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4921417210.648366</v>
+        <v>5640051429.733914</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1152866767386355</v>
+        <v>0.1481343234996381</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04787167240902188</v>
+        <v>0.03690700738628663</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>108</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2460708628.256471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2130902386.979867</v>
+        <v>3408862637.751275</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08595818469383247</v>
+        <v>0.07945970633349139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03440925874125686</v>
+        <v>0.04494651711981019</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>117</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1065451285.315605</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5097959475.959752</v>
+        <v>5511791442.750125</v>
       </c>
       <c r="F68" t="n">
-        <v>0.104556761724073</v>
+        <v>0.1158785821639952</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0510995313529441</v>
+        <v>0.03763544493361486</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2548979800.313426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1968157352.254601</v>
+        <v>1905291455.331165</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1705636497004369</v>
+        <v>0.1560319959152611</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04491661471386255</v>
+        <v>0.05491736843607131</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>984078676.9757147</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2618904787.201476</v>
+        <v>2428752956.919634</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07175819932109848</v>
+        <v>0.06607816557671323</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03681444548815464</v>
+        <v>0.03093879392700678</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>105</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1309452345.759608</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5216449850.735399</v>
+        <v>3811280649.544251</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1393572851924241</v>
+        <v>0.1448704154186944</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02675394811163698</v>
+        <v>0.02149515952647064</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>134</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2608225047.22611</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2052117890.347073</v>
+        <v>1544098132.402906</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09048978073081372</v>
+        <v>0.07468735574460308</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04995942883211268</v>
+        <v>0.04566891791970244</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1026058883.095269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2720967939.976959</v>
+        <v>2874430626.740113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09791327361574938</v>
+        <v>0.1034170368215948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03986405160737165</v>
+        <v>0.03462823476904103</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>140</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1360483991.531321</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3573312190.212362</v>
+        <v>2837749022.935031</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1273266843646895</v>
+        <v>0.1833043628697208</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0355123384203611</v>
+        <v>0.02658122091151477</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>125</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1786656110.947488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1684481559.382577</v>
+        <v>1600247101.573114</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1172235110186438</v>
+        <v>0.135884806145019</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02984740184689957</v>
+        <v>0.02323351864133942</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>842240773.5302145</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4795571574.201686</v>
+        <v>4285368523.816554</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07539461732549065</v>
+        <v>0.1005321210448744</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02565542193821074</v>
+        <v>0.03341059676759384</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2397785805.159494</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1621726583.658691</v>
+        <v>1556140264.587847</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1652947715026534</v>
+        <v>0.1180683035534676</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02436814344207657</v>
+        <v>0.02097217906905119</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>810863297.4941915</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4781501216.943169</v>
+        <v>3830272964.877244</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1282895314844058</v>
+        <v>0.1290507687957196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03941278973829484</v>
+        <v>0.05473079878314282</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>128</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2390750518.278995</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1645053362.451518</v>
+        <v>1291028482.408394</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1536528255893487</v>
+        <v>0.1590433693321222</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03519144169237036</v>
+        <v>0.03050785371510937</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>822526740.8353307</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5436224150.722793</v>
+        <v>5391647255.95025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1112562338779143</v>
+        <v>0.1078599747405152</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02484891091637767</v>
+        <v>0.02539163675613988</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2718112146.267792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5169645034.401525</v>
+        <v>3864005753.083715</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08665102877145806</v>
+        <v>0.1364135177783305</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03213110034818355</v>
+        <v>0.02700242455955522</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>87</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2584822523.858932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5130397231.770217</v>
+        <v>5611893845.121176</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2011724176871038</v>
+        <v>0.158271312947409</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02703991265148137</v>
+        <v>0.02415308084766971</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>128</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2565198592.548332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2023081232.025813</v>
+        <v>2080044634.610023</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084737872485374</v>
+        <v>0.1384661465826797</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03629650561230745</v>
+        <v>0.03204394642188384</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1011540604.22602</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2182388431.038677</v>
+        <v>1813587000.217876</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1146490333459009</v>
+        <v>0.08480921519629352</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03506941483840879</v>
+        <v>0.0501321987523384</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1091194193.800041</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2690235749.885491</v>
+        <v>2715559450.289469</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1705149318676223</v>
+        <v>0.145970864760824</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05284175142197024</v>
+        <v>0.05373811150366335</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>138</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1345117900.932909</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2425723597.613149</v>
+        <v>2617690309.795163</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1556797192892897</v>
+        <v>0.1564332947710645</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02545038298325452</v>
+        <v>0.02181128617002942</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>49</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1212861885.641753</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1371798100.545918</v>
+        <v>1369655105.76523</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1731288155515999</v>
+        <v>0.1465716686350172</v>
       </c>
       <c r="G87" t="n">
-        <v>0.033357732128429</v>
+        <v>0.03630083717633374</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>685899149.8906386</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3048927622.91728</v>
+        <v>3618503411.697149</v>
       </c>
       <c r="F88" t="n">
-        <v>0.151217155311395</v>
+        <v>0.1593125241589813</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02540718006182914</v>
+        <v>0.02960343813610147</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>146</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1524463846.742788</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3206832691.490961</v>
+        <v>3270780705.182545</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1392426481748221</v>
+        <v>0.1308099724322062</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03829620675525344</v>
+        <v>0.02880913758434449</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>123</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1603416368.704408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1865297160.818473</v>
+        <v>2070600085.57119</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1209080397127096</v>
+        <v>0.102423731432314</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03579132810004369</v>
+        <v>0.04065819062674353</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>932648625.9934877</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1303223081.205003</v>
+        <v>1439835630.309371</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1446828158646054</v>
+        <v>0.156521174288536</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06167581853230915</v>
+        <v>0.05069845136634169</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>651611605.7826324</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1823757765.298734</v>
+        <v>2997470499.647463</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08116468166491282</v>
+        <v>0.09089545476018034</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04366923250177885</v>
+        <v>0.04007216654466797</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>103</v>
-      </c>
-      <c r="J92" t="n">
-        <v>911878815.5129803</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3645733183.678977</v>
+        <v>3630305181.310779</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1074543209645043</v>
+        <v>0.1402786855795563</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05032769726473345</v>
+        <v>0.03494620240822466</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1822866615.375782</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1816673587.080548</v>
+        <v>1662809599.129239</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1119015281735614</v>
+        <v>0.1358660660003156</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0391535194244619</v>
+        <v>0.03579583501740111</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>908336768.0968293</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2542239943.005305</v>
+        <v>2798644809.006077</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09570267127651574</v>
+        <v>0.09081160512898173</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03753626279675398</v>
+        <v>0.04959636782001865</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1271120004.515727</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1573058723.342476</v>
+        <v>1940852333.058707</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1260338368641113</v>
+        <v>0.1358070529773706</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04079275741905394</v>
+        <v>0.03650277627736954</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>786529394.2286594</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4863452565.975575</v>
+        <v>4566419169.094183</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1223225322517912</v>
+        <v>0.1462317201300924</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0290814427339779</v>
+        <v>0.02321801934684037</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2431726408.819307</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3199444328.339711</v>
+        <v>3118523828.059497</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09524624535367306</v>
+        <v>0.09241675468237404</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02703424632142773</v>
+        <v>0.0311922100712683</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1599722162.431909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2306097752.37575</v>
+        <v>3285876570.815289</v>
       </c>
       <c r="F99" t="n">
-        <v>0.13853448678989</v>
+        <v>0.1247933265725425</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02477621772736463</v>
+        <v>0.03194904373458492</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>115</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1153048811.923971</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4406377993.343105</v>
+        <v>3592728285.955689</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1252466211698992</v>
+        <v>0.1667083004815431</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02366794059907959</v>
+        <v>0.02666161325431434</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2203189099.803798</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3538806314.091797</v>
+        <v>2377779660.554204</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1813144344273713</v>
+        <v>0.1806108178214607</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05411979826284236</v>
+        <v>0.05422185984709226</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>150</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1769403317.293059</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_368.xlsx
+++ b/output/fit_clients/fit_round_368.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2269237224.255747</v>
+        <v>2060938972.162735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07048665052736444</v>
+        <v>0.07653893833462531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03560169222380374</v>
+        <v>0.03674950617021193</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2614991721.083237</v>
+        <v>2281965199.746396</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1621782255338046</v>
+        <v>0.1115586760539765</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04104532796197293</v>
+        <v>0.04192734953917825</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4319488596.626667</v>
+        <v>5130493514.568902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1148537891080433</v>
+        <v>0.113783665778016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0368466697927126</v>
+        <v>0.02344456809396887</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4133248188.601779</v>
+        <v>2941807349.062138</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09759755098056405</v>
+        <v>0.08638052746382008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04559052233243967</v>
+        <v>0.04316918526591627</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2679574992.527867</v>
+        <v>2396704035.548532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1484422879724916</v>
+        <v>0.1182460565762642</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0451535407319435</v>
+        <v>0.04312642017835014</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2498720606.453982</v>
+        <v>2761437635.306468</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07507598689072731</v>
+        <v>0.09917134474586699</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0380261990296522</v>
+        <v>0.04004515779277034</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2560526036.451652</v>
+        <v>3448027981.661648</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1704646394656867</v>
+        <v>0.1862188573714014</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02029662723992793</v>
+        <v>0.02860001734135228</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2072750952.028264</v>
+        <v>2305395903.762759</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1979715949555634</v>
+        <v>0.1427086135897139</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03322052688342165</v>
+        <v>0.02260552396815931</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5109246847.222838</v>
+        <v>4908875427.406923</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1621624775544698</v>
+        <v>0.1471931024903492</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04119467319114488</v>
+        <v>0.04452505594790559</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3147195453.546801</v>
+        <v>3992710375.435682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1351191502106049</v>
+        <v>0.1314719160520765</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04000726552236415</v>
+        <v>0.03691280536314864</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3259807076.953043</v>
+        <v>2750548412.979486</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1333204428152072</v>
+        <v>0.1621298233749029</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04743384628316903</v>
+        <v>0.03331148112915956</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4598761305.053689</v>
+        <v>3731368024.89588</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06451919220912881</v>
+        <v>0.06979854607326777</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02022032426561613</v>
+        <v>0.02226059110282948</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2918680901.33005</v>
+        <v>3138557609.154397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1193874635752684</v>
+        <v>0.1721748991135351</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03915340323838212</v>
+        <v>0.04345358068971872</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541724958.345466</v>
+        <v>1160152006.574457</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1008639528404646</v>
+        <v>0.0716601649916194</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03780265206995918</v>
+        <v>0.0416541277998354</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1947638422.745426</v>
+        <v>1847557505.646387</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07347117371791348</v>
+        <v>0.1041323674212265</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04386905214609971</v>
+        <v>0.03893109203582133</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5181451398.668014</v>
+        <v>4498799296.860265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1707575256905189</v>
+        <v>0.1208488056684519</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04538735273553821</v>
+        <v>0.04450742325010704</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3162409056.781055</v>
+        <v>3101585457.034325</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1746231807695995</v>
+        <v>0.1248141307495295</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02637643079714737</v>
+        <v>0.02372900117496195</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1139222112.162019</v>
+        <v>902242906.8281609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1678261931691735</v>
+        <v>0.1181552773970965</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02097953413537004</v>
+        <v>0.02218618188333484</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2101939091.921532</v>
+        <v>2626247785.527483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1463018252585572</v>
+        <v>0.1496484336400685</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02215549286075846</v>
+        <v>0.02080216039576403</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2170305821.570487</v>
+        <v>2401083189.379603</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0956979540504927</v>
+        <v>0.06855914509440511</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04083057954442495</v>
+        <v>0.04233242775823912</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2689374253.85627</v>
+        <v>2773064170.875123</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1366722671908594</v>
+        <v>0.1431347418595183</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04743844361327428</v>
+        <v>0.05103265074846695</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1410810183.168324</v>
+        <v>1131939060.864552</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1626094611967134</v>
+        <v>0.1409311857964012</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0528636753947332</v>
+        <v>0.04161895351144523</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3618059259.299067</v>
+        <v>2760203748.139675</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1076628309214638</v>
+        <v>0.1462640661664541</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0246499087966176</v>
+        <v>0.02693892347759478</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1127637283.476046</v>
+        <v>1112409705.634369</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09267350793295294</v>
+        <v>0.1160733992453057</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0253513434278585</v>
+        <v>0.02279542464905338</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1322017447.212841</v>
+        <v>1138502021.988799</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09040810574301067</v>
+        <v>0.09164556326643615</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03266470625864022</v>
+        <v>0.03371912924868091</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3819249216.587441</v>
+        <v>3665675328.329714</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1165397302420891</v>
+        <v>0.1355932919336744</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02591942766071294</v>
+        <v>0.02669082269699791</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3585449565.29511</v>
+        <v>3046981112.518684</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09437145310605444</v>
+        <v>0.1339334935183243</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0303424808607526</v>
+        <v>0.0353140693283901</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4472082014.493484</v>
+        <v>5104800848.062924</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09654908869709443</v>
+        <v>0.1044952448653319</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04369628126006806</v>
+        <v>0.03868232551974567</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1640897302.971132</v>
+        <v>1756882357.481894</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189197228685935</v>
+        <v>0.08674916737013931</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03648424885961837</v>
+        <v>0.03547678373558358</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1080980810.318259</v>
+        <v>1239657277.815825</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08076677189319917</v>
+        <v>0.08858770994269995</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04073260946344009</v>
+        <v>0.05134892133200507</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1157673449.298879</v>
+        <v>1537839715.973747</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08717992021512562</v>
+        <v>0.1123519887230718</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0363527418199041</v>
+        <v>0.02377882456602681</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2246990915.530003</v>
+        <v>2047997079.078799</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2065135766065745</v>
+        <v>0.1672468267484248</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04937352803555628</v>
+        <v>0.03938799870046617</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1143695102.580657</v>
+        <v>1131983656.100845</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09864111992396188</v>
+        <v>0.118889093533669</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01784340570787028</v>
+        <v>0.02138662755483975</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1281053024.804642</v>
+        <v>1195043670.467858</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1013400998269855</v>
+        <v>0.1097114636155599</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03624297731414357</v>
+        <v>0.03588170879787547</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2566434951.624233</v>
+        <v>2321082636.957975</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1337880138154962</v>
+        <v>0.1651270113480394</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02139761574601782</v>
+        <v>0.01887876843458516</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2488291749.800964</v>
+        <v>2734308556.863129</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09607948797360398</v>
+        <v>0.0728392035107177</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03769261778015749</v>
+        <v>0.03449992537346901</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1542164924.157251</v>
+        <v>1457096171.319267</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1048941086594282</v>
+        <v>0.09828402776376666</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03487656241757067</v>
+        <v>0.03913794778901417</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2051256683.669631</v>
+        <v>2178333019.429279</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760733295490682</v>
+        <v>0.1713100091180711</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03190452270600957</v>
+        <v>0.02552184446933562</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1268937081.376679</v>
+        <v>1809966560.820493</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1240702130367963</v>
+        <v>0.1381711299279145</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04936615343242645</v>
+        <v>0.05327689869414106</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2233268741.647367</v>
+        <v>2570204695.684111</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1553544956174106</v>
+        <v>0.1194882655142376</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04046369753329777</v>
+        <v>0.03178831444836103</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2988141397.11523</v>
+        <v>2807856938.20885</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1080410922574959</v>
+        <v>0.1115298054791622</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04380751708773129</v>
+        <v>0.04089051284289472</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3053944712.613527</v>
+        <v>2115576809.821084</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1827647572414818</v>
+        <v>0.1838184722062831</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02015201494485282</v>
+        <v>0.01809949070485875</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1755713951.755784</v>
+        <v>2246007160.544938</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1002683829816875</v>
+        <v>0.08176244415863916</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0291964493430656</v>
+        <v>0.02411819172673093</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1686579074.568749</v>
+        <v>2081683354.078713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1562133889676749</v>
+        <v>0.1680384709947425</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03864740466882222</v>
+        <v>0.04543164949756529</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3922958353.47798</v>
+        <v>3943561603.386868</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1248035194326224</v>
+        <v>0.178828932833094</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0446474656254386</v>
+        <v>0.04119505410613124</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3419418925.973552</v>
+        <v>3755481646.924889</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1468262023267017</v>
+        <v>0.1611588148896458</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05648264587500119</v>
+        <v>0.05356499359140184</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3281244773.995824</v>
+        <v>3725677557.144662</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1083764916240065</v>
+        <v>0.0842182524055503</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0380865818123512</v>
+        <v>0.03173562718056662</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1800562199.401513</v>
+        <v>1843918130.071642</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1288653596733768</v>
+        <v>0.1815803624734965</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04033065831599828</v>
+        <v>0.03650847793133511</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3753458411.109663</v>
+        <v>4071420008.203702</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1591979017285058</v>
+        <v>0.1614586057445482</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04305489118594861</v>
+        <v>0.03917139151029531</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>967509871.3008213</v>
+        <v>1442707711.287877</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1341084965175009</v>
+        <v>0.1856927720506875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03862549879352362</v>
+        <v>0.04895976005803634</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3488651233.923724</v>
+        <v>3655040292.759868</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1021426172483754</v>
+        <v>0.08992503705069278</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04881283276496038</v>
+        <v>0.04990212319897463</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3541528971.579617</v>
+        <v>2595417595.586414</v>
       </c>
       <c r="F53" t="n">
-        <v>0.192309604463288</v>
+        <v>0.1657133847865823</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0315176308196105</v>
+        <v>0.0284703103924652</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4481338667.080004</v>
+        <v>4221120342.818382</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1196944396010139</v>
+        <v>0.1696210243221455</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03394936190152138</v>
+        <v>0.04725907175907579</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3205299586.662666</v>
+        <v>3707265859.098417</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1965860668907106</v>
+        <v>0.2075891500850271</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02052426805046129</v>
+        <v>0.0260749673498724</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1516223123.227741</v>
+        <v>1857028215.371686</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1633232496070525</v>
+        <v>0.1529075259818188</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05802417276704996</v>
+        <v>0.04445169911253673</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3817642701.440827</v>
+        <v>4248669903.177711</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1662001354208841</v>
+        <v>0.1570614931868291</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0232534884928751</v>
+        <v>0.02188815760759803</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1558359183.559096</v>
+        <v>1838378476.310264</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2012368261697064</v>
+        <v>0.174955262910104</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0298018546535415</v>
+        <v>0.03140860640200523</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3686495764.98383</v>
+        <v>4716594098.6837</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08591939998105935</v>
+        <v>0.08227924496441624</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04582742606463392</v>
+        <v>0.04264055874285954</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3638509150.959546</v>
+        <v>3636322696.540515</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1818759240914397</v>
+        <v>0.1749436117183584</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02221768353538443</v>
+        <v>0.03346444808894934</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2802172198.945909</v>
+        <v>2702898941.708206</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1516405307472498</v>
+        <v>0.1226910045645149</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02804389187357901</v>
+        <v>0.02826583827199346</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1696859794.575837</v>
+        <v>1926092174.251833</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1220942780174068</v>
+        <v>0.1875189075710719</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03304018290894312</v>
+        <v>0.03699706943284124</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4726346515.064179</v>
+        <v>4300171729.022429</v>
       </c>
       <c r="F63" t="n">
-        <v>0.083898054310575</v>
+        <v>0.101908002425081</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03358551069847941</v>
+        <v>0.03659517596456522</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5385571402.529012</v>
+        <v>3591889990.381805</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1255643991095329</v>
+        <v>0.1844214981386616</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03280747134335765</v>
+        <v>0.02693998365918225</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5838228754.440277</v>
+        <v>4477402503.313166</v>
       </c>
       <c r="F65" t="n">
-        <v>0.140532723549169</v>
+        <v>0.1051398667617391</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02414977152276939</v>
+        <v>0.02395051584715848</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5640051429.733914</v>
+        <v>4708477165.611948</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1481343234996381</v>
+        <v>0.154962826442774</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03690700738628663</v>
+        <v>0.03396355587511146</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3408862637.751275</v>
+        <v>2461562235.923018</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07945970633349139</v>
+        <v>0.0661576468090793</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04494651711981019</v>
+        <v>0.04618571136781037</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5511791442.750125</v>
+        <v>4992550764.227243</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1158785821639952</v>
+        <v>0.1480561569322038</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03763544493361486</v>
+        <v>0.04824552780585535</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1905291455.331165</v>
+        <v>1779205282.708684</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1560319959152611</v>
+        <v>0.1423780486419387</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05491736843607131</v>
+        <v>0.04344055249575775</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2428752956.919634</v>
+        <v>2877516696.404618</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06607816557671323</v>
+        <v>0.09869699676036509</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03093879392700678</v>
+        <v>0.04254195466921395</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3811280649.544251</v>
+        <v>5534402682.333089</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1448704154186944</v>
+        <v>0.1788336040262391</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02149515952647064</v>
+        <v>0.02691861395794628</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1544098132.402906</v>
+        <v>1571040401.459191</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07468735574460308</v>
+        <v>0.08820294659967517</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04566891791970244</v>
+        <v>0.03783762765987832</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2874430626.740113</v>
+        <v>2213980687.862037</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1034170368215948</v>
+        <v>0.1093321018632964</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03462823476904103</v>
+        <v>0.0396673767010205</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2837749022.935031</v>
+        <v>3232425729.146772</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1833043628697208</v>
+        <v>0.1851656311776134</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02658122091151477</v>
+        <v>0.03349349834059977</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1600247101.573114</v>
+        <v>1998099376.114226</v>
       </c>
       <c r="F75" t="n">
-        <v>0.135884806145019</v>
+        <v>0.1200080939646429</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02323351864133942</v>
+        <v>0.03288183618014948</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4285368523.816554</v>
+        <v>5169347070.586634</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1005321210448744</v>
+        <v>0.08896494689305043</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03341059676759384</v>
+        <v>0.02203283901128549</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1556140264.587847</v>
+        <v>2204164417.421534</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1180683035534676</v>
+        <v>0.1691049881866982</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02097217906905119</v>
+        <v>0.01967468009731317</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3830272964.877244</v>
+        <v>4258357151.765724</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1290507687957196</v>
+        <v>0.09747011906301065</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05473079878314282</v>
+        <v>0.053423720127531</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1291028482.408394</v>
+        <v>1529439654.503036</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1590433693321222</v>
+        <v>0.1625569572234336</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03050785371510937</v>
+        <v>0.0385237715618658</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5391647255.95025</v>
+        <v>4535027900.270626</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1078599747405152</v>
+        <v>0.06796000505369426</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02539163675613988</v>
+        <v>0.03687846849227081</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3864005753.083715</v>
+        <v>3862733217.892449</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1364135177783305</v>
+        <v>0.1043828069384768</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02700242455955522</v>
+        <v>0.03225799403076849</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5611893845.121176</v>
+        <v>5097071788.47439</v>
       </c>
       <c r="F82" t="n">
-        <v>0.158271312947409</v>
+        <v>0.1819685622323432</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02415308084766971</v>
+        <v>0.02612275895298997</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2080044634.610023</v>
+        <v>1701769330.1654</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1384661465826797</v>
+        <v>0.1509631663739664</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03204394642188384</v>
+        <v>0.04164448592370369</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1813587000.217876</v>
+        <v>2298346734.828099</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08480921519629352</v>
+        <v>0.07439637943664269</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0501321987523384</v>
+        <v>0.03730037089359241</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2715559450.289469</v>
+        <v>2739938189.121817</v>
       </c>
       <c r="F85" t="n">
-        <v>0.145970864760824</v>
+        <v>0.1815561370896628</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05373811150366335</v>
+        <v>0.04044227734778179</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2617690309.795163</v>
+        <v>1760318397.082072</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1564332947710645</v>
+        <v>0.1654582666105683</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02181128617002942</v>
+        <v>0.02555559330254548</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1369655105.76523</v>
+        <v>1053589037.322888</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1465716686350172</v>
+        <v>0.1870178080639225</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03630083717633374</v>
+        <v>0.03606629946643819</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3618503411.697149</v>
+        <v>3207959441.001502</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1593125241589813</v>
+        <v>0.1412388398897777</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02960343813610147</v>
+        <v>0.03228984867483216</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3270780705.182545</v>
+        <v>2706916114.172136</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1308099724322062</v>
+        <v>0.133424021407509</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02880913758434449</v>
+        <v>0.03840000054438488</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2070600085.57119</v>
+        <v>1407416204.169157</v>
       </c>
       <c r="F90" t="n">
-        <v>0.102423731432314</v>
+        <v>0.1183449822351806</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04065819062674353</v>
+        <v>0.05415645227914237</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1439835630.309371</v>
+        <v>1594277961.122486</v>
       </c>
       <c r="F91" t="n">
-        <v>0.156521174288536</v>
+        <v>0.166994943310911</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05069845136634169</v>
+        <v>0.04656081020888714</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2997470499.647463</v>
+        <v>2260617657.445902</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09089545476018034</v>
+        <v>0.09975898228010299</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04007216654466797</v>
+        <v>0.04002376126300028</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3630305181.310779</v>
+        <v>3889537906.963065</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1402786855795563</v>
+        <v>0.1368039227697929</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03494620240822466</v>
+        <v>0.04268526871088041</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1662809599.129239</v>
+        <v>1890725707.243694</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1358660660003156</v>
+        <v>0.1357247312069988</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03579583501740111</v>
+        <v>0.03277891974463513</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2798644809.006077</v>
+        <v>2742421965.233749</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09081160512898173</v>
+        <v>0.1139518460897429</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04959636782001865</v>
+        <v>0.05051164101953943</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1940852333.058707</v>
+        <v>2268267410.07253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1358070529773706</v>
+        <v>0.1372491652292948</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03650277627736954</v>
+        <v>0.03402436055276165</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4566419169.094183</v>
+        <v>3327527832.766951</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1462317201300924</v>
+        <v>0.1217801699746626</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02321801934684037</v>
+        <v>0.02296261203273295</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3118523828.059497</v>
+        <v>3003470988.029647</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09241675468237404</v>
+        <v>0.105811659719014</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0311922100712683</v>
+        <v>0.02298912125222444</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3285876570.815289</v>
+        <v>3424236486.199447</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1247933265725425</v>
+        <v>0.1190305420280758</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03194904373458492</v>
+        <v>0.0336075017713492</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3592728285.955689</v>
+        <v>4246939231.351463</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1667083004815431</v>
+        <v>0.1794832417488293</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02666161325431434</v>
+        <v>0.02682009672051192</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2377779660.554204</v>
+        <v>2242882622.111335</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1806108178214607</v>
+        <v>0.2122067589460892</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05422185984709226</v>
+        <v>0.04522306564196734</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_368.xlsx
+++ b/output/fit_clients/fit_round_368.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2060938972.162735</v>
+        <v>2270154428.067098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07653893833462531</v>
+        <v>0.07336139133560617</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03674950617021193</v>
+        <v>0.03168471376167014</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2281965199.746396</v>
+        <v>2296992646.854561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1115586760539765</v>
+        <v>0.1761647929623096</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04192734953917825</v>
+        <v>0.04197027133614251</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5130493514.568902</v>
+        <v>4881944723.418731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.113783665778016</v>
+        <v>0.1480708242275477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02344456809396887</v>
+        <v>0.03791759661622415</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>368</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2941807349.062138</v>
+        <v>2704150054.5011</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08638052746382008</v>
+        <v>0.07527262614123915</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04316918526591627</v>
+        <v>0.03533194693608593</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>149</v>
+      </c>
+      <c r="J5" t="n">
+        <v>367</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.60938236821453</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2396704035.548532</v>
+        <v>2090012383.50444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1182460565762642</v>
+        <v>0.09558986497837874</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04312642017835014</v>
+        <v>0.0541900865124299</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2761437635.306468</v>
+        <v>2369060802.364771</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09917134474586699</v>
+        <v>0.07043965187865246</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04004515779277034</v>
+        <v>0.0306631091164183</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3448027981.661648</v>
+        <v>2582333833.456451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1862188573714014</v>
+        <v>0.1726530215013651</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02860001734135228</v>
+        <v>0.0320357768508874</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>97</v>
+      </c>
+      <c r="J8" t="n">
+        <v>367</v>
+      </c>
+      <c r="K8" t="n">
+        <v>23.90070041457884</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2305395903.762759</v>
+        <v>2203039243.139575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1427086135897139</v>
+        <v>0.1622004607832875</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02260552396815931</v>
+        <v>0.03198592831467609</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4908875427.406923</v>
+        <v>3910351565.60239</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1471931024903492</v>
+        <v>0.2156183996259479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04452505594790559</v>
+        <v>0.04459409723535415</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>305</v>
+      </c>
+      <c r="J10" t="n">
+        <v>368</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3992710375.435682</v>
+        <v>2684775494.777171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1314719160520765</v>
+        <v>0.1470899021056179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03691280536314864</v>
+        <v>0.04757384281011481</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>153</v>
+      </c>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2750548412.979486</v>
+        <v>2184150673.802422</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1621298233749029</v>
+        <v>0.1327222000084562</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03331148112915956</v>
+        <v>0.0369091924734684</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3731368024.89588</v>
+        <v>4502085891.437194</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06979854607326777</v>
+        <v>0.08547739015935507</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02226059110282948</v>
+        <v>0.02636999639570245</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>191</v>
+      </c>
+      <c r="J13" t="n">
+        <v>368</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3138557609.154397</v>
+        <v>3161986246.671695</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1721748991135351</v>
+        <v>0.176894879735299</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04345358068971872</v>
+        <v>0.04434589695730391</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1160152006.574457</v>
+        <v>1355397743.583214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0716601649916194</v>
+        <v>0.07526827380378255</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0416541277998354</v>
+        <v>0.03897247149544129</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1847557505.646387</v>
+        <v>2240165217.270407</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1041323674212265</v>
+        <v>0.1156669537670981</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03893109203582133</v>
+        <v>0.03724292677029614</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4498799296.860265</v>
+        <v>4595518961.597092</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1208488056684519</v>
+        <v>0.1160270940134314</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04450742325010704</v>
+        <v>0.04002415120685193</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>173</v>
+      </c>
+      <c r="J17" t="n">
+        <v>368</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3101585457.034325</v>
+        <v>3216500982.977249</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1248141307495295</v>
+        <v>0.164824520043842</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02372900117496195</v>
+        <v>0.03363006712058059</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>90</v>
+      </c>
+      <c r="J18" t="n">
+        <v>366</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>902242906.8281609</v>
+        <v>1130457637.0082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1181552773970965</v>
+        <v>0.12822461384723</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02218618188333484</v>
+        <v>0.02453661149102088</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2626247785.527483</v>
+        <v>1757850488.86252</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1496484336400685</v>
+        <v>0.1042556561469509</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02080216039576403</v>
+        <v>0.02057709335233562</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2401083189.379603</v>
+        <v>1789473002.783176</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06855914509440511</v>
+        <v>0.07600581155617306</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04233242775823912</v>
+        <v>0.04196147074026786</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2773064170.875123</v>
+        <v>3892726693.1411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1431347418595183</v>
+        <v>0.1084964749733682</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05103265074846695</v>
+        <v>0.04652036020926239</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>102</v>
+      </c>
+      <c r="J22" t="n">
+        <v>368</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1131939060.864552</v>
+        <v>1326601477.215806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1409311857964012</v>
+        <v>0.1775451648298738</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04161895351144523</v>
+        <v>0.04485917038583771</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2760203748.139675</v>
+        <v>4045764240.62858</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1462640661664541</v>
+        <v>0.117458852771144</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02693892347759478</v>
+        <v>0.03146868348483453</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>112</v>
+      </c>
+      <c r="J24" t="n">
+        <v>368</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1112409705.634369</v>
+        <v>998846423.5766733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1160733992453057</v>
+        <v>0.1107190246209084</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02279542464905338</v>
+        <v>0.02699119910134117</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1138502021.988799</v>
+        <v>943129300.1190583</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09164556326643615</v>
+        <v>0.08693034177067374</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03371912924868091</v>
+        <v>0.02709944686516914</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3665675328.329714</v>
+        <v>4513835829.511855</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1355932919336744</v>
+        <v>0.1252396391704786</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02669082269699791</v>
+        <v>0.01776844806784036</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>154</v>
+      </c>
+      <c r="J27" t="n">
+        <v>367</v>
+      </c>
+      <c r="K27" t="n">
+        <v>58.06291076293363</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3046981112.518684</v>
+        <v>2468082184.672124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1339334935183243</v>
+        <v>0.09993435321719853</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0353140693283901</v>
+        <v>0.033739881786129</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1452,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5104800848.062924</v>
+        <v>5129931598.716483</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1044952448653319</v>
+        <v>0.1288842772895478</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03868232551974567</v>
+        <v>0.04581307062238685</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>322</v>
+      </c>
+      <c r="J29" t="n">
+        <v>368</v>
+      </c>
+      <c r="K29" t="n">
+        <v>58.58758756188237</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1756882357.481894</v>
+        <v>1529101389.92015</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08674916737013931</v>
+        <v>0.127791517657874</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03547678373558358</v>
+        <v>0.03047835151101416</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1239657277.815825</v>
+        <v>1213511050.242201</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08858770994269995</v>
+        <v>0.1105986096459301</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05134892133200507</v>
+        <v>0.0452051280476755</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1537839715.973747</v>
+        <v>1812266407.31874</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1123519887230718</v>
+        <v>0.07470053884798809</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02377882456602681</v>
+        <v>0.02591405558786702</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2047997079.078799</v>
+        <v>3120224173.751633</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1672468267484248</v>
+        <v>0.191793972054872</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03938799870046617</v>
+        <v>0.05662156321327382</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1131983656.100845</v>
+        <v>1123908357.294052</v>
       </c>
       <c r="F34" t="n">
-        <v>0.118889093533669</v>
+        <v>0.0894097039010516</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02138662755483975</v>
+        <v>0.02684457161170763</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1195043670.467858</v>
+        <v>875042283.4707521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097114636155599</v>
+        <v>0.1144489784648142</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03588170879787547</v>
+        <v>0.04468472902147113</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2321082636.957975</v>
+        <v>2282985050.752828</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1651270113480394</v>
+        <v>0.1374207544497823</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01887876843458516</v>
+        <v>0.02338060235839567</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2734308556.863129</v>
+        <v>2221748961.344469</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0728392035107177</v>
+        <v>0.1068822311319014</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03449992537346901</v>
+        <v>0.04017607152408122</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1457096171.319267</v>
+        <v>1676213992.169158</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09828402776376666</v>
+        <v>0.1177950471757582</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03913794778901417</v>
+        <v>0.02582924589309139</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2178333019.429279</v>
+        <v>1776522940.350923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1713100091180711</v>
+        <v>0.1353154244336217</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02552184446933562</v>
+        <v>0.02972942396083374</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1809966560.820493</v>
+        <v>1288207073.861904</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1381711299279145</v>
+        <v>0.1530417129877489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05327689869414106</v>
+        <v>0.05484910176268473</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2570204695.684111</v>
+        <v>1882743240.6142</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1194882655142376</v>
+        <v>0.1390370613089809</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03178831444836103</v>
+        <v>0.0311534427408169</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1909,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2807856938.20885</v>
+        <v>3709925060.503084</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1115298054791622</v>
+        <v>0.1120986375872993</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04089051284289472</v>
+        <v>0.0408149400340316</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="n">
+        <v>42.61061420428651</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2115576809.821084</v>
+        <v>2563930143.972475</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1838184722062831</v>
+        <v>0.1606744428334055</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01809949070485875</v>
+        <v>0.02196427741937637</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2246007160.544938</v>
+        <v>1928690970.575415</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08176244415863916</v>
+        <v>0.06930414398619522</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02411819172673093</v>
+        <v>0.02949998058784081</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2081683354.078713</v>
+        <v>1975245865.372108</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1680384709947425</v>
+        <v>0.1469029446646518</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04543164949756529</v>
+        <v>0.03738742110782777</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3943561603.386868</v>
+        <v>4242580573.312144</v>
       </c>
       <c r="F46" t="n">
-        <v>0.178828932833094</v>
+        <v>0.156177565484217</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04119505410613124</v>
+        <v>0.05579911125043219</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>220</v>
+      </c>
+      <c r="J46" t="n">
+        <v>368</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3755481646.924889</v>
+        <v>5199573596.591778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1611588148896458</v>
+        <v>0.1417246888379355</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05356499359140184</v>
+        <v>0.04785101600486634</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>164</v>
+      </c>
+      <c r="J47" t="n">
+        <v>368</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3725677557.144662</v>
+        <v>4617678088.052525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0842182524055503</v>
+        <v>0.09605671830641559</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03173562718056662</v>
+        <v>0.03864715870069484</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>189</v>
+      </c>
+      <c r="J48" t="n">
+        <v>368</v>
+      </c>
+      <c r="K48" t="n">
+        <v>58.72610054818024</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1843918130.071642</v>
+        <v>1658793631.072543</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1815803624734965</v>
+        <v>0.1740118811101808</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03650847793133511</v>
+        <v>0.03629710193854615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4071420008.203702</v>
+        <v>3782322196.761276</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1614586057445482</v>
+        <v>0.1733347845378938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03917139151029531</v>
+        <v>0.03998513805482343</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>123</v>
+      </c>
+      <c r="J50" t="n">
+        <v>368</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1442707711.287877</v>
+        <v>1187473433.418718</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1856927720506875</v>
+        <v>0.1519953242775059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04895976005803634</v>
+        <v>0.0519894999217528</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3655040292.759868</v>
+        <v>3548740629.561685</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08992503705069278</v>
+        <v>0.09053031790158274</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04990212319897463</v>
+        <v>0.04984309765345706</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>217</v>
+      </c>
+      <c r="J52" t="n">
+        <v>367</v>
+      </c>
+      <c r="K52" t="n">
+        <v>35.15498430813383</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2300,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2595417595.586414</v>
+        <v>3501642541.067677</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1657133847865823</v>
+        <v>0.1777702899130695</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0284703103924652</v>
+        <v>0.02491526875058879</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4221120342.818382</v>
+        <v>3976302546.867146</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1696210243221455</v>
+        <v>0.1489768725203655</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04725907175907579</v>
+        <v>0.03424528795223199</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>195</v>
+      </c>
+      <c r="J54" t="n">
+        <v>368</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2370,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3707265859.098417</v>
+        <v>4346126072.700298</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2075891500850271</v>
+        <v>0.1807613232796157</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0260749673498724</v>
+        <v>0.02420115364288712</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>176</v>
+      </c>
+      <c r="J55" t="n">
+        <v>367</v>
+      </c>
+      <c r="K55" t="n">
+        <v>55.85556105267185</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1857028215.371686</v>
+        <v>1692725038.75358</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1529075259818188</v>
+        <v>0.1612607748727228</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04445169911253673</v>
+        <v>0.0371807167273589</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4248669903.177711</v>
+        <v>2807712220.837307</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570614931868291</v>
+        <v>0.1272933774625248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02188815760759803</v>
+        <v>0.02300964606899691</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>153</v>
+      </c>
+      <c r="J57" t="n">
+        <v>367</v>
+      </c>
+      <c r="K57" t="n">
+        <v>23.14316951587188</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1838378476.310264</v>
+        <v>1286438153.012328</v>
       </c>
       <c r="F58" t="n">
-        <v>0.174955262910104</v>
+        <v>0.1605284671080937</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03140860640200523</v>
+        <v>0.02579910274614878</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4716594098.6837</v>
+        <v>5299843277.866383</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08227924496441624</v>
+        <v>0.09888627562426335</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04264055874285954</v>
+        <v>0.04484738588589852</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>179</v>
+      </c>
+      <c r="J59" t="n">
+        <v>368</v>
+      </c>
+      <c r="K59" t="n">
+        <v>58.11622714797206</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3636322696.540515</v>
+        <v>3219251445.280482</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1749436117183584</v>
+        <v>0.1767332183346347</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03346444808894934</v>
+        <v>0.02956739309605604</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>66</v>
+      </c>
+      <c r="J60" t="n">
+        <v>367</v>
+      </c>
+      <c r="K60" t="n">
+        <v>42.15401169974212</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2702898941.708206</v>
+        <v>2053052953.689743</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1226910045645149</v>
+        <v>0.1617114309985073</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02826583827199346</v>
+        <v>0.02960159016505012</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1926092174.251833</v>
+        <v>1804881049.715341</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1875189075710719</v>
+        <v>0.1635805981520327</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03699706943284124</v>
+        <v>0.04553471243639452</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4300171729.022429</v>
+        <v>3698496245.955714</v>
       </c>
       <c r="F63" t="n">
-        <v>0.101908002425081</v>
+        <v>0.07012127392350311</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03659517596456522</v>
+        <v>0.04255139641527849</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>181</v>
+      </c>
+      <c r="J63" t="n">
+        <v>366</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3591889990.381805</v>
+        <v>5124463862.41518</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1844214981386616</v>
+        <v>0.1496256782719131</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02693998365918225</v>
+        <v>0.03137677511540502</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>183</v>
+      </c>
+      <c r="J64" t="n">
+        <v>367</v>
+      </c>
+      <c r="K64" t="n">
+        <v>56.81535145315311</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4477402503.313166</v>
+        <v>5758550586.127172</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1051398667617391</v>
+        <v>0.1502472153462499</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02395051584715848</v>
+        <v>0.02035742367194858</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>279</v>
+      </c>
+      <c r="J65" t="n">
+        <v>367</v>
+      </c>
+      <c r="K65" t="n">
+        <v>57.79392130147433</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4708477165.611948</v>
+        <v>5439797232.943209</v>
       </c>
       <c r="F66" t="n">
-        <v>0.154962826442774</v>
+        <v>0.1437846206108815</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03396355587511146</v>
+        <v>0.03380352303797241</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>182</v>
+      </c>
+      <c r="J66" t="n">
+        <v>367</v>
+      </c>
+      <c r="K66" t="n">
+        <v>53.9091363733701</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2461562235.923018</v>
+        <v>2848391937.272354</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0661576468090793</v>
+        <v>0.1015945308941668</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04618571136781037</v>
+        <v>0.04968324891721421</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4992550764.227243</v>
+        <v>5887482306.548669</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1480561569322038</v>
+        <v>0.1223146492648215</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04824552780585535</v>
+        <v>0.04918983860323409</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>200</v>
+      </c>
+      <c r="J68" t="n">
+        <v>367</v>
+      </c>
+      <c r="K68" t="n">
+        <v>56.8234771449107</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1779205282.708684</v>
+        <v>2115666155.011023</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1423780486419387</v>
+        <v>0.131281478601741</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04344055249575775</v>
+        <v>0.05140116059077811</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2877516696.404618</v>
+        <v>3216111705.49061</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09869699676036509</v>
+        <v>0.06973680981859076</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04254195466921395</v>
+        <v>0.03742253562102701</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5534402682.333089</v>
+        <v>4600944459.666993</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1788336040262391</v>
+        <v>0.124129485500539</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02691861395794628</v>
+        <v>0.03328023878847353</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>265</v>
+      </c>
+      <c r="J71" t="n">
+        <v>368</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1571040401.459191</v>
+        <v>2043470919.878784</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08820294659967517</v>
+        <v>0.0946990541886753</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03783762765987832</v>
+        <v>0.03362294179854414</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2213980687.862037</v>
+        <v>2248350208.714479</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093321018632964</v>
+        <v>0.09012516857361015</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0396673767010205</v>
+        <v>0.04205800650450633</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3232425729.146772</v>
+        <v>3186386981.203841</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1851656311776134</v>
+        <v>0.1587363258782118</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03349349834059977</v>
+        <v>0.02784456149916581</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>105</v>
+      </c>
+      <c r="J74" t="n">
+        <v>365</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1998099376.114226</v>
+        <v>1690269072.745713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1200080939646429</v>
+        <v>0.1459215799050284</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03288183618014948</v>
+        <v>0.03621331911487119</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5169347070.586634</v>
+        <v>4942721083.360111</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08896494689305043</v>
+        <v>0.1247329207662525</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02203283901128549</v>
+        <v>0.02883697935818538</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>174</v>
+      </c>
+      <c r="J76" t="n">
+        <v>368</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204164417.421534</v>
+        <v>2071702922.61608</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1691049881866982</v>
+        <v>0.1391326918725921</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01967468009731317</v>
+        <v>0.02068512614740084</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4258357151.765724</v>
+        <v>4706134547.20386</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09747011906301065</v>
+        <v>0.1306403633522805</v>
       </c>
       <c r="G78" t="n">
-        <v>0.053423720127531</v>
+        <v>0.03893283526114019</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>184</v>
+      </c>
+      <c r="J78" t="n">
+        <v>367</v>
+      </c>
+      <c r="K78" t="n">
+        <v>57.41538130779251</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1529439654.503036</v>
+        <v>1495489640.47279</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1625569572234336</v>
+        <v>0.109808330127711</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0385237715618658</v>
+        <v>0.03748411459090664</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4535027900.270626</v>
+        <v>4197877363.486146</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06796000505369426</v>
+        <v>0.06939778175374338</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03687846849227081</v>
+        <v>0.02624342053907263</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>179</v>
+      </c>
+      <c r="J80" t="n">
+        <v>368</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3862733217.892449</v>
+        <v>3828167656.699437</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1043828069384768</v>
+        <v>0.0982560864290179</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03225799403076849</v>
+        <v>0.02627656056089808</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>170</v>
+      </c>
+      <c r="J81" t="n">
+        <v>368</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5097071788.47439</v>
+        <v>5139139174.093733</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1819685622323432</v>
+        <v>0.2057887931389009</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02612275895298997</v>
+        <v>0.02089648659267654</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>257</v>
+      </c>
+      <c r="J82" t="n">
+        <v>367</v>
+      </c>
+      <c r="K82" t="n">
+        <v>56.75237441786912</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1701769330.1654</v>
+        <v>2200888447.895519</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1509631663739664</v>
+        <v>0.1214431511011062</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04164448592370369</v>
+        <v>0.03023519074291752</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2298346734.828099</v>
+        <v>1922913811.403591</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07439637943664269</v>
+        <v>0.09366212099739647</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03730037089359241</v>
+        <v>0.03309625271129003</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2739938189.121817</v>
+        <v>2865379820.580664</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1815561370896628</v>
+        <v>0.1230886286044026</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04044227734778179</v>
+        <v>0.04186630893087706</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>47</v>
+      </c>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1760318397.082072</v>
+        <v>1891073704.403968</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1654582666105683</v>
+        <v>0.1649400464207541</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02555559330254548</v>
+        <v>0.02334141732183484</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1053589037.322888</v>
+        <v>1070826068.613645</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1870178080639225</v>
+        <v>0.1793785710344136</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03606629946643819</v>
+        <v>0.03051991915979586</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3207959441.001502</v>
+        <v>2369502067.643293</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1412388398897777</v>
+        <v>0.131330098018747</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03228984867483216</v>
+        <v>0.02949709794251356</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2706916114.172136</v>
+        <v>2257185337.597488</v>
       </c>
       <c r="F89" t="n">
-        <v>0.133424021407509</v>
+        <v>0.1000763598085686</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03840000054438488</v>
+        <v>0.04019331432611169</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1407416204.169157</v>
+        <v>2094206867.085086</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1183449822351806</v>
+        <v>0.1000962059444103</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05415645227914237</v>
+        <v>0.03783008904182661</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1594277961.122486</v>
+        <v>1484936897.824448</v>
       </c>
       <c r="F91" t="n">
-        <v>0.166994943310911</v>
+        <v>0.167538076907372</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04656081020888714</v>
+        <v>0.06061050057746451</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2260617657.445902</v>
+        <v>2496583086.408919</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09975898228010299</v>
+        <v>0.07033033535128094</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04002376126300028</v>
+        <v>0.03796420743204518</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3889537906.963065</v>
+        <v>4457782348.913404</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1368039227697929</v>
+        <v>0.1099417454633621</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04268526871088041</v>
+        <v>0.04295601444266939</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>171</v>
+      </c>
+      <c r="J93" t="n">
+        <v>368</v>
+      </c>
+      <c r="K93" t="n">
+        <v>58.08172989937169</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1890725707.243694</v>
+        <v>1651840447.879606</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1357247312069988</v>
+        <v>0.1152819729858077</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03277891974463513</v>
+        <v>0.03375605462372612</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2742421965.233749</v>
+        <v>2879900805.639429</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1139518460897429</v>
+        <v>0.09136703234020298</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05051164101953943</v>
+        <v>0.03493482739553117</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2268267410.07253</v>
+        <v>2102361577.437457</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1372491652292948</v>
+        <v>0.09605097628652515</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03402436055276165</v>
+        <v>0.02926727272274107</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3327527832.766951</v>
+        <v>3933781618.835637</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1217801699746626</v>
+        <v>0.1631219233764058</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02296261203273295</v>
+        <v>0.01850586149937799</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>190</v>
+      </c>
+      <c r="J97" t="n">
+        <v>368</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3003470988.029647</v>
+        <v>3044406843.239176</v>
       </c>
       <c r="F98" t="n">
-        <v>0.105811659719014</v>
+        <v>0.09720868121512083</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02298912125222444</v>
+        <v>0.03033992669860026</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>92</v>
+      </c>
+      <c r="J98" t="n">
+        <v>367</v>
+      </c>
+      <c r="K98" t="n">
+        <v>30.80025566992605</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3424236486.199447</v>
+        <v>2084738199.49537</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1190305420280758</v>
+        <v>0.1442951775871638</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0336075017713492</v>
+        <v>0.02366132550345737</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4246939231.351463</v>
+        <v>4585046462.097859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1794832417488293</v>
+        <v>0.1449987905062755</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02682009672051192</v>
+        <v>0.02111841820921203</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>167</v>
+      </c>
+      <c r="J100" t="n">
+        <v>368</v>
+      </c>
+      <c r="K100" t="n">
+        <v>59.20857269624749</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2242882622.111335</v>
+        <v>3060712515.837424</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2122067589460892</v>
+        <v>0.165571292896122</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04522306564196734</v>
+        <v>0.04267967085228993</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
